--- a/project_DAIM.xlsx
+++ b/project_DAIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0575D173-CB68-41A8-94C1-CAE8FA42E969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B59AD-BE47-4B12-B427-82D07BFF2DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>PRI</t>
   </si>
@@ -729,9 +729,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>WC Model</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>TC Model</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -775,7 +776,492 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRI Influence Spread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77FB-4F4E-90DF-B3EB59964CB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRII Influence Spread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77FB-4F4E-90DF-B3EB59964CB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRIII Influence Spread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77FB-4F4E-90DF-B3EB59964CB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1152023471"/>
+        <c:axId val="925441679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1152023471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925441679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="925441679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1152023471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>WC Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -810,7 +1296,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$K$2</c:f>
+              <c:f>Sheet1!$L$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -834,7 +1320,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$K$3</c:f>
+              <c:f>Sheet1!$L$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -859,7 +1345,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C36-45B0-BC55-2B05FD9B2648}"/>
+              <c16:uniqueId val="{00000000-6466-45BA-B7F2-50772E1A4404}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -868,7 +1354,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -903,7 +1389,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$K$2</c:f>
+              <c:f>Sheet1!$L$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -927,7 +1413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$K$4</c:f>
+              <c:f>Sheet1!$L$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -952,7 +1438,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C36-45B0-BC55-2B05FD9B2648}"/>
+              <c16:uniqueId val="{00000001-6466-45BA-B7F2-50772E1A4404}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -961,7 +1447,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -996,7 +1482,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$K$2</c:f>
+              <c:f>Sheet1!$L$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1020,7 +1506,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$K$5</c:f>
+              <c:f>Sheet1!$L$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1045,7 +1531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0C36-45B0-BC55-2B05FD9B2648}"/>
+              <c16:uniqueId val="{00000002-6466-45BA-B7F2-50772E1A4404}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1059,11 +1545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="946033008"/>
-        <c:axId val="320686000"/>
+        <c:axId val="1069406799"/>
+        <c:axId val="2111433135"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="946033008"/>
+        <c:axId val="1069406799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,13 +1576,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>seed</a:t>
+                  <a:t>seed size</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1166,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320686000"/>
+        <c:crossAx val="2111433135"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1174,7 +1655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320686000"/>
+        <c:axId val="2111433135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1761,491 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946033008"/>
+        <c:crossAx val="1069406799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>WC Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRI Influence Spread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A436-4701-BC09-1986C12F8DD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRII Influence Spread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A436-4701-BC09-1986C12F8DD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRIII Influence Spread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$9:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A436-4701-BC09-1986C12F8DD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1152024431"/>
+        <c:axId val="2111436607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1152024431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111436607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2111436607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1152024431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,6 +2412,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2453,18 +3498,1024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>872490</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>300990</xdr:colOff>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2493,23 +4544,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92B3FB7-3101-393D-4493-A98893392396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1013244-7F94-6E3F-F87C-0F5568FEF064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,6 +4573,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE0D998-5CD9-0B2D-A3F3-8AB9DBEFED0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A09EB21-6A7B-F5AA-C812-9C76C1883FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2793,18 +4916,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2812,15 +4936,20 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>10</v>
       </c>
@@ -2836,23 +4965,23 @@
       <c r="F2">
         <v>50</v>
       </c>
-      <c r="G2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="M2">
         <v>20</v>
       </c>
-      <c r="I2">
+      <c r="N2">
         <v>30</v>
       </c>
-      <c r="J2">
+      <c r="O2">
         <v>40</v>
       </c>
-      <c r="K2">
+      <c r="P2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2871,23 +5000,26 @@
       <c r="F3">
         <v>0.3987</v>
       </c>
-      <c r="G3">
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.20880000000000001</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>0.2114</v>
       </c>
-      <c r="I3">
+      <c r="N3">
         <v>0.21440000000000001</v>
       </c>
-      <c r="J3">
+      <c r="O3">
         <v>0.21840000000000001</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <v>0.2074</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2906,23 +5038,26 @@
       <c r="F4">
         <v>2.8702999999999999</v>
       </c>
-      <c r="G4">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>3.0448</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>3.0518000000000001</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>3.0638000000000001</v>
       </c>
-      <c r="J4">
+      <c r="O4">
         <v>3.0318999999999998</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>3.0489000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2941,23 +5076,26 @@
       <c r="F5">
         <v>0.16950000000000001</v>
       </c>
-      <c r="G5">
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.1825</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>0.188</v>
       </c>
-      <c r="I5">
+      <c r="N5">
         <v>0.1855</v>
       </c>
-      <c r="J5">
+      <c r="O5">
         <v>0.19070000000000001</v>
       </c>
-      <c r="K5">
+      <c r="P5">
         <v>0.1925</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2976,23 +5114,26 @@
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7">
         <v>52</v>
       </c>
-      <c r="H7">
+      <c r="M7">
         <v>42</v>
       </c>
-      <c r="I7">
+      <c r="N7">
         <v>69</v>
       </c>
-      <c r="J7">
+      <c r="O7">
         <v>62</v>
       </c>
-      <c r="K7">
+      <c r="P7">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3011,23 +5152,26 @@
       <c r="F8">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <v>69</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>63</v>
       </c>
-      <c r="I8">
+      <c r="N8">
         <v>75</v>
       </c>
-      <c r="J8">
+      <c r="O8">
         <v>58</v>
       </c>
-      <c r="K8">
+      <c r="P8">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3046,26 +5190,30 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9">
         <v>68</v>
       </c>
-      <c r="H9">
+      <c r="M9">
         <v>68</v>
       </c>
-      <c r="I9">
+      <c r="N9">
         <v>63</v>
       </c>
-      <c r="J9">
+      <c r="O9">
         <v>68</v>
       </c>
-      <c r="K9">
+      <c r="P9">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/project_DAIM.xlsx
+++ b/project_DAIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B59AD-BE47-4B12-B427-82D07BFF2DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F463D-7D6F-46DC-B1A6-295BD0FFB26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>PRI</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>PRIII Influence Spread</t>
+  </si>
+  <si>
+    <t>PRIII</t>
   </si>
 </sst>
 </file>
@@ -104,598 +107,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>TC Model</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PRI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>Seed Size</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.2104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21540000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3987</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63F2-4902-956E-984DDD638B17}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PRII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>Seed Size</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.8334000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8782999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8254000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8374000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8702999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-63F2-4902-956E-984DDD638B17}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PRII</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>Seed Size</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.20150000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14360000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17949999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16950000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-63F2-4902-956E-984DDD638B17}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="946021968"/>
-        <c:axId val="944754160"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="946021968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>seed size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="944754160"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="944754160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>running</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> time</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="946021968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1180,7 +591,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1451,7 +862,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PRII</c:v>
+                  <c:v>PRIII</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1848,7 +1259,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2246,6 +1657,679 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1152024431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>TC Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2E9-4CFD-88B4-7D72061A658E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8334000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8782999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8254000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8374000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8702999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2E9-4CFD-88B4-7D72061A658E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRIII</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.20150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16950000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2E9-4CFD-88B4-7D72061A658E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="791769696"/>
+        <c:axId val="788204224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="791769696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seed size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788204224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="788204224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791769696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4509,42 +4593,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD092079-6114-E7B5-4023-283EEBCDA174}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -4572,7 +4620,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4608,7 +4656,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4633,6 +4681,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A09EB21-6A7B-F5AA-C812-9C76C1883FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329DF151-835C-2E66-6E07-6D029BC93342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4918,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5059,7 +5143,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.20150000000000001</v>
@@ -5077,7 +5161,7 @@
         <v>0.16950000000000001</v>
       </c>
       <c r="K5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>0.1825</v>
